--- a/03_graficos/descritivo.xlsx
+++ b/03_graficos/descritivo.xlsx
@@ -8,24 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e94e91ad3b9f2a1e/Documentos/LAPEI-CIGETS/GitHub/tcp/03_graficos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_AC0488803CBEE64E17D78022EE505DEA6FBBF774" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EC88E08-7B3D-4733-8F0F-0194761EE3E0}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_AC0488803CBEE64E17D78022EE505DEA6FBBF774" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{242895CF-E324-4A09-99E4-8EC8566151E6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Cluster</t>
   </si>
@@ -91,6 +95,15 @@
   </si>
   <si>
     <t>Ensino superior (%)</t>
+  </si>
+  <si>
+    <t>Variáveis</t>
+  </si>
+  <si>
+    <t>Maiores Estados (%)</t>
+  </si>
+  <si>
+    <t>Necessidade</t>
   </si>
 </sst>
 </file>
@@ -126,11 +139,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,4 +586,165 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CADF85-1E21-4257-BBBB-4BE57979FAFC}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.47</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6">
+        <v>43.2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>41.7</v>
+      </c>
+      <c r="D7" s="6">
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2425</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1221</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2303</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>